--- a/predictions/experiments.xlsx
+++ b/predictions/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="devset" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="zero_shot" sheetId="4" r:id="rId4"/>
     <sheet name="1or2_MRs" sheetId="6" r:id="rId5"/>
     <sheet name="sample" sheetId="5" r:id="rId6"/>
+    <sheet name="output" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="349">
   <si>
     <t>모델</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -844,10 +845,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(Model-T) E2E NLG Challenge: Neural Models vs. Templates</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>(Transformer, K = 2) End-to-End Content and Plan Selection for Data-to-Text Generation</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -950,10 +947,6 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(NTemp+AR) Learning Neural Templates for Text Generation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>(dot, copy, K = 2) End-to-End Content and Plan Selection for Data-to-Text Generation</t>
@@ -1314,12 +1307,151 @@
 (0.0359)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Blue Spice is a pub in the riverside area.</t>
+  </si>
+  <si>
+    <t>Blue Spice is a pub by the riverside.</t>
+  </si>
+  <si>
+    <t>Blue Spice is a pub located in the riverside area.</t>
+  </si>
+  <si>
+    <t>There is a pub Blue Spice in the riverside area.</t>
+  </si>
+  <si>
+    <t>our_model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tgen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>references</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Spice is a pub in the riverside area.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[Blue Spice], eatType[pub], area[riverside]</t>
+  </si>
+  <si>
+    <t>name[The Mill], eatType[restaurant], food[English], priceRange[less than £20], area[city centre], familyFriendly[yes], near[Raja Indian Cuisine]</t>
+  </si>
+  <si>
+    <t>The Mill is a family-friendly restaurant that serves English food for less than £20. It is located in the city centre near Raja Indian Cuisine.</t>
+  </si>
+  <si>
+    <t>The Mill is a family friendly English restaurant in the city centre near Raja Indian Cuisine. It has a price range of less than £20.</t>
+  </si>
+  <si>
+    <t>The Mill is a family-friendly english restaurant in the city centre near Raja Indian Cuisine with a price range less than £20.</t>
+  </si>
+  <si>
+    <t>The Mill is a family-friendly restaurant which serves English food in the price range of less than £20. It is located in the city centre area, near Raja Indian Cuisine.</t>
+  </si>
+  <si>
+    <t>The Mill, Is a restaurant and is family-friendly, cheap and reasonable priced is very good for the family , We provide full English food. Located near Raja Indian Cuisine In the city centre.</t>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly pub that serves Japanese food for less than £20. It is located in the riverside area near Raja Indian Cuisine.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[The Vaults], eatType[restaurant], food[French], priceRange[less than £20], area[riverside], familyFriendly[yes], near[Raja Indian Cuisine]</t>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly French restaurant located near Raja Indian Cuisine in the riverside area. The price range is less than £20.</t>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly French restaurant in the riverside area near Raja Indian Cuisine. The price range is less than £20.</t>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly french restaurant in the riverside area near Raja Indian Cuisine. The price range is less than £20.</t>
+  </si>
+  <si>
+    <t>The Vaults is a family-friendly restaurant which serves French food in the price range of less than £20. It is located in the riverside area, near Raja Indian Cuisine.</t>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly restaurant in the low price range serving French food, situated near Raja Indian Cuisine</t>
+  </si>
+  <si>
+    <t>The Vaults is a pub that serves Italian food. It is located near Rainbow Vegetarian Café. It is not children friendly. The price range is more than £30. The customer rating is high.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name[The Vaults], eatType[pub], food[Italian], priceRange[more than £30], customer rating[high], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area[riverside]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, familyFriendly[no], near[Rainbow Vegetarian Café]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name[The Vaults], eatType[pub], food[Japanese], priceRange[less than £20], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>customer rating[average]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, area[riverside], familyFriendly[yes], near[Raja Indian Cuisine]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1597,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1837,7 +1997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,6 +2381,45 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2284,43 +2483,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,14 +2823,14 @@
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
@@ -2850,14 +3019,14 @@
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
@@ -3192,14 +3361,14 @@
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="156"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="35">
@@ -3551,14 +3720,14 @@
     <row r="3" spans="1:11">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -3810,14 +3979,14 @@
     <row r="16" spans="1:11">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="155"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -4679,7 +4848,7 @@
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D52" s="55">
         <v>0.68130000000000002</v>
@@ -4974,7 +5143,7 @@
       <c r="A65" s="35"/>
       <c r="B65" s="35"/>
       <c r="C65" s="133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D65" s="133">
         <v>0.65149999999999997</v>
@@ -5014,7 +5183,7 @@
       <c r="A67" s="35"/>
       <c r="B67" s="35"/>
       <c r="C67" s="132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D67" s="132">
         <v>0.66279999999999994</v>
@@ -5112,14 +5281,14 @@
     <row r="74" spans="1:11" ht="17.25" thickBot="1">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="156" t="s">
+      <c r="C74" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="158"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="170"/>
+      <c r="F74" s="170"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="171"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
@@ -6414,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6619,30 +6788,30 @@
     <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="82"/>
       <c r="B9" s="82"/>
-      <c r="C9" s="162" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="163">
+      <c r="C9" s="141" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="142">
         <f>_xlfn.STDEV.P(D5:D7)</f>
         <v>2.4589970855344047E-3</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="142">
         <f t="shared" ref="E9:I9" si="0">_xlfn.STDEV.P(E5:E7)</f>
         <v>4.3046976923150765E-2</v>
       </c>
-      <c r="F9" s="163">
+      <c r="F9" s="142">
         <f t="shared" si="0"/>
         <v>3.3109246778237366E-3</v>
       </c>
-      <c r="G9" s="163">
+      <c r="G9" s="142">
         <f t="shared" si="0"/>
         <v>3.9262648351270748E-3</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="142">
         <f t="shared" si="0"/>
         <v>3.5444071750043472E-2</v>
       </c>
-      <c r="I9" s="164">
+      <c r="I9" s="143">
         <f t="shared" si="0"/>
         <v>4.5131247231726407E-4</v>
       </c>
@@ -6650,130 +6819,130 @@
     <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="82"/>
       <c r="B10" s="82"/>
-      <c r="C10" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="166">
+      <c r="C10" s="144" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="145">
         <v>0.66279999999999994</v>
       </c>
-      <c r="E10" s="166">
+      <c r="E10" s="145">
         <v>8.4850999999999992</v>
       </c>
-      <c r="F10" s="166">
+      <c r="F10" s="145">
         <v>0.44519999999999998</v>
       </c>
-      <c r="G10" s="166">
+      <c r="G10" s="145">
         <v>0.68740000000000001</v>
       </c>
-      <c r="H10" s="166">
+      <c r="H10" s="145">
         <v>2.2183000000000002</v>
       </c>
-      <c r="I10" s="167">
+      <c r="I10" s="146">
         <v>0.94046775092708701</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="82"/>
       <c r="B11" s="82"/>
-      <c r="C11" s="168" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="173">
+      <c r="C11" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="152">
         <v>0.66710000000000003</v>
       </c>
-      <c r="E11" s="169">
+      <c r="E11" s="148">
         <v>8.5967000000000002</v>
       </c>
-      <c r="F11" s="169">
+      <c r="F11" s="148">
         <v>0.43709999999999999</v>
       </c>
-      <c r="G11" s="169">
+      <c r="G11" s="148">
         <v>0.68540000000000001</v>
       </c>
-      <c r="H11" s="169">
+      <c r="H11" s="148">
         <v>2.1433</v>
       </c>
-      <c r="I11" s="170">
+      <c r="I11" s="149">
         <v>0.94100230276876695</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="82"/>
       <c r="B12" s="82"/>
-      <c r="C12" s="168" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="169">
+      <c r="C12" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="148">
         <v>0.6623</v>
       </c>
-      <c r="E12" s="169">
+      <c r="E12" s="148">
         <v>8.5221999999999998</v>
       </c>
-      <c r="F12" s="169">
+      <c r="F12" s="148">
         <v>0.42920000000000003</v>
       </c>
-      <c r="G12" s="169">
+      <c r="G12" s="148">
         <v>0.68569999999999998</v>
       </c>
-      <c r="H12" s="169">
+      <c r="H12" s="148">
         <v>2.1198999999999999</v>
       </c>
-      <c r="I12" s="170">
+      <c r="I12" s="149">
         <v>0.93935503852715396</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="82"/>
       <c r="B13" s="82"/>
-      <c r="C13" s="168" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="169">
+      <c r="C13" s="147" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="148">
         <v>0.66590000000000005</v>
       </c>
-      <c r="E13" s="169">
+      <c r="E13" s="148">
         <v>8.5966000000000005</v>
       </c>
-      <c r="F13" s="169">
+      <c r="F13" s="148">
         <v>0.443</v>
       </c>
-      <c r="G13" s="169">
+      <c r="G13" s="148">
         <v>0.69030000000000002</v>
       </c>
-      <c r="H13" s="169">
+      <c r="H13" s="148">
         <v>2.2052</v>
       </c>
-      <c r="I13" s="170">
+      <c r="I13" s="149">
         <v>0.94024338297769705</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="82"/>
       <c r="B14" s="82"/>
-      <c r="C14" s="162" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="163">
+      <c r="C14" s="141" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="142">
         <f>AVERAGE(D11:D13)</f>
         <v>0.66510000000000014</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="142">
         <f t="shared" ref="E14:I14" si="1">AVERAGE(E11:E13)</f>
         <v>8.5718333333333323</v>
       </c>
-      <c r="F14" s="163">
+      <c r="F14" s="142">
         <f t="shared" si="1"/>
         <v>0.4364333333333334</v>
       </c>
-      <c r="G14" s="163">
+      <c r="G14" s="142">
         <f t="shared" si="1"/>
         <v>0.68713333333333326</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="142">
         <f t="shared" si="1"/>
         <v>2.156133333333333</v>
       </c>
-      <c r="I14" s="164">
+      <c r="I14" s="143">
         <f t="shared" si="1"/>
         <v>0.94020024142453928</v>
       </c>
@@ -6781,30 +6950,30 @@
     <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="82"/>
       <c r="B15" s="82"/>
-      <c r="C15" s="162" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" s="163">
+      <c r="C15" s="141" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="142">
         <f>_xlfn.STDEV.P(D11:D13)</f>
         <v>2.039607805437129E-3</v>
       </c>
-      <c r="E15" s="163">
+      <c r="E15" s="142">
         <f t="shared" ref="E15:I15" si="2">_xlfn.STDEV.P(E11:E13)</f>
         <v>3.5096090317235831E-2</v>
       </c>
-      <c r="F15" s="163">
+      <c r="F15" s="142">
         <f t="shared" si="2"/>
         <v>5.6535141480518218E-3</v>
       </c>
-      <c r="G15" s="163">
+      <c r="G15" s="142">
         <f t="shared" si="2"/>
         <v>2.2425184255405691E-3</v>
       </c>
-      <c r="H15" s="163">
+      <c r="H15" s="142">
         <f t="shared" si="2"/>
         <v>3.5986509818109524E-2</v>
       </c>
-      <c r="I15" s="164">
+      <c r="I15" s="143">
         <f t="shared" si="2"/>
         <v>6.7318435594362501E-4</v>
       </c>
@@ -6812,14 +6981,14 @@
     <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="82"/>
       <c r="B16" s="82"/>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="172" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -6943,7 +7112,7 @@
       <c r="A22" s="82"/>
       <c r="B22" s="82"/>
       <c r="C22" s="93" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="D22" s="95">
         <v>0.56569999999999998</v>
@@ -6968,7 +7137,7 @@
       <c r="A23" s="82"/>
       <c r="B23" s="82"/>
       <c r="C23" s="96" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="D23" s="95">
         <v>59.8</v>
@@ -6991,7 +7160,7 @@
       <c r="A24" s="82"/>
       <c r="B24" s="82"/>
       <c r="C24" s="93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D24" s="94">
         <v>67.400000000000006</v>
@@ -7014,7 +7183,7 @@
       <c r="A25" s="82"/>
       <c r="B25" s="82"/>
       <c r="C25" s="93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="94">
         <v>66.2</v>
@@ -7037,7 +7206,7 @@
       <c r="A26" s="82"/>
       <c r="B26" s="82"/>
       <c r="C26" s="96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="95">
         <v>0.67379999999999995</v>
@@ -7060,7 +7229,7 @@
       <c r="A27" s="82"/>
       <c r="B27" s="82"/>
       <c r="C27" s="108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="109">
         <v>0.65449999999999997</v>
@@ -7085,7 +7254,7 @@
       <c r="A28" s="82"/>
       <c r="B28" s="82"/>
       <c r="C28" s="97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="98">
         <v>0.66190000000000004</v>
@@ -7132,7 +7301,7 @@
       <c r="A31" s="82"/>
       <c r="B31" s="82"/>
       <c r="C31" s="117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D31" s="118" t="s">
         <v>135</v>
@@ -7157,7 +7326,7 @@
       <c r="A32" s="82"/>
       <c r="B32" s="82"/>
       <c r="C32" s="89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="126">
         <v>0.6794</v>
@@ -7182,57 +7351,57 @@
       <c r="A33" s="82"/>
       <c r="B33" s="82"/>
       <c r="C33" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="E33" s="171" t="s">
+      <c r="G33" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="F33" s="171" t="s">
+      <c r="H33" s="150" t="s">
+        <v>320</v>
+      </c>
+      <c r="I33" s="151" t="s">
         <v>318</v>
-      </c>
-      <c r="G33" s="171" t="s">
-        <v>319</v>
-      </c>
-      <c r="H33" s="171" t="s">
-        <v>322</v>
-      </c>
-      <c r="I33" s="172" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.5" thickBot="1">
       <c r="A34" s="82"/>
       <c r="B34" s="82"/>
-      <c r="C34" s="174" t="s">
-        <v>238</v>
+      <c r="C34" s="153" t="s">
+        <v>237</v>
       </c>
       <c r="D34" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="135" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="G34" s="135" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="135" t="s">
+      <c r="H34" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="G34" s="135" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="135" t="s">
-        <v>267</v>
-      </c>
       <c r="I34" s="136" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" thickTop="1">
       <c r="A35" s="82"/>
       <c r="B35" s="82"/>
       <c r="C35" s="120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D35" s="121">
         <v>0.6593</v>
@@ -7257,7 +7426,7 @@
       <c r="A36" s="82"/>
       <c r="B36" s="82"/>
       <c r="C36" s="89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D36" s="109">
         <v>0.56569999999999998</v>
@@ -7282,7 +7451,7 @@
       <c r="A37" s="82"/>
       <c r="B37" s="82"/>
       <c r="C37" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D37" s="109">
         <v>0.66190000000000004</v>
@@ -7307,7 +7476,7 @@
       <c r="A38" s="82"/>
       <c r="B38" s="82"/>
       <c r="C38" s="89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" s="90">
         <v>0.42020000000000002</v>
@@ -7325,14 +7494,14 @@
         <v>1.4389000000000001</v>
       </c>
       <c r="I38" s="91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="82"/>
       <c r="B39" s="82"/>
       <c r="C39" s="89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="90">
         <v>0.63360000000000005</v>
@@ -7350,14 +7519,14 @@
         <v>2.1425000000000001</v>
       </c>
       <c r="I39" s="91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="82"/>
       <c r="B40" s="82"/>
       <c r="C40" s="108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40" s="109">
         <v>0.59799999999999998</v>
@@ -7375,14 +7544,14 @@
         <v>1.95</v>
       </c>
       <c r="I40" s="91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="82"/>
       <c r="B41" s="82"/>
       <c r="C41" s="89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D41" s="90">
         <v>0.67400000000000004</v>
@@ -7400,14 +7569,14 @@
         <v>2.31</v>
       </c>
       <c r="I41" s="91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="82"/>
       <c r="B42" s="82"/>
       <c r="C42" s="89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D42" s="90">
         <v>0.66200000000000003</v>
@@ -7425,14 +7594,14 @@
         <v>2.34</v>
       </c>
       <c r="I42" s="91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" thickBot="1">
       <c r="A43" s="82"/>
       <c r="B43" s="82"/>
       <c r="C43" s="125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D43" s="123">
         <v>0.67379999999999995</v>
@@ -7450,14 +7619,14 @@
         <v>2.2995000000000001</v>
       </c>
       <c r="I43" s="124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="82"/>
       <c r="B44" s="82"/>
       <c r="C44" s="129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D44" s="130"/>
       <c r="E44" s="130"/>
@@ -7904,25 +8073,25 @@
     <row r="3" spans="1:3">
       <c r="A3" s="102"/>
       <c r="B3" s="111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="102"/>
       <c r="B4" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="102"/>
       <c r="B5" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>202</v>
@@ -7931,7 +8100,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="102"/>
       <c r="B6" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="105" t="s">
         <v>203</v>
@@ -7945,73 +8114,73 @@
     <row r="8" spans="1:3">
       <c r="A8" s="102"/>
       <c r="B8" s="137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" s="139" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="102"/>
       <c r="B9" s="137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" s="139" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="102"/>
       <c r="B10" s="137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" s="139" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="102"/>
       <c r="B11" s="137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="102"/>
       <c r="B12" s="137" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="102"/>
       <c r="B13" s="137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" s="139" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="102"/>
       <c r="B14" s="137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="102"/>
       <c r="B15" s="137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8068,135 +8237,135 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B3" s="161" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="161"/>
+      <c r="B3" s="174" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="174"/>
     </row>
     <row r="4" spans="2:3" ht="20.25">
       <c r="B4" s="138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.25">
       <c r="B5" s="138" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="20.25">
       <c r="B6" s="138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.25">
       <c r="B7" s="138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.25">
       <c r="B8" s="138" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.25">
       <c r="B9" s="138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B10" s="161" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="161"/>
+      <c r="B10" s="174" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="174"/>
     </row>
     <row r="11" spans="2:3" ht="20.25">
       <c r="B11" s="138" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="20.25">
       <c r="B12" s="138" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="20.25">
       <c r="B13" s="138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.25">
       <c r="B14" s="138" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="20.25">
       <c r="B15" s="138" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="20.25">
       <c r="B16" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="138" t="s">
         <v>279</v>
-      </c>
-      <c r="C16" s="138" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="20.25">
       <c r="B17" s="138" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="20.25">
       <c r="B18" s="138" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="140" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="20.25">
       <c r="B19" s="138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8214,7 +8383,7 @@
   <dimension ref="B4:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8231,18 +8400,215 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="176" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5">
+      <c r="D4" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="175" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="175" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="175" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="175" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="175" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="175" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="175" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="175" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="175" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E20" s="113" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="175" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="177" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="113" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="175" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" s="113" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/experiments.xlsx
+++ b/predictions/experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="353">
   <si>
     <t>모델</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1324,18 +1324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>slug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tgen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>references</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1351,51 +1339,76 @@
     <t>name[Blue Spice], eatType[pub], area[riverside]</t>
   </si>
   <si>
-    <t>name[The Mill], eatType[restaurant], food[English], priceRange[less than £20], area[city centre], familyFriendly[yes], near[Raja Indian Cuisine]</t>
-  </si>
-  <si>
-    <t>The Mill is a family-friendly restaurant that serves English food for less than £20. It is located in the city centre near Raja Indian Cuisine.</t>
-  </si>
-  <si>
-    <t>The Mill is a family friendly English restaurant in the city centre near Raja Indian Cuisine. It has a price range of less than £20.</t>
-  </si>
-  <si>
-    <t>The Mill is a family-friendly english restaurant in the city centre near Raja Indian Cuisine with a price range less than £20.</t>
-  </si>
-  <si>
-    <t>The Mill is a family-friendly restaurant which serves English food in the price range of less than £20. It is located in the city centre area, near Raja Indian Cuisine.</t>
-  </si>
-  <si>
-    <t>The Mill, Is a restaurant and is family-friendly, cheap and reasonable priced is very good for the family , We provide full English food. Located near Raja Indian Cuisine In the city centre.</t>
-  </si>
-  <si>
-    <t>The Vaults is a family friendly pub that serves Japanese food for less than £20. It is located in the riverside area near Raja Indian Cuisine.</t>
+    <t>Multi-Constraeind Transformer</t>
+  </si>
+  <si>
+    <t>name[The Mill], eatType[restaurant], food[English], priceRange[less than £20],
+area[city centre], familyFriendly[yes], near[Raja Indian Cuisine]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>name[The Vaults], eatType[restaurant], food[French], priceRange[less than £20], area[riverside], familyFriendly[yes], near[Raja Indian Cuisine]</t>
-  </si>
-  <si>
-    <t>The Vaults is a family friendly French restaurant located near Raja Indian Cuisine in the riverside area. The price range is less than £20.</t>
-  </si>
-  <si>
-    <t>The Vaults is a family friendly French restaurant in the riverside area near Raja Indian Cuisine. The price range is less than £20.</t>
-  </si>
-  <si>
-    <t>The Vaults is a family friendly french restaurant in the riverside area near Raja Indian Cuisine. The price range is less than £20.</t>
-  </si>
-  <si>
-    <t>The Vaults is a family-friendly restaurant which serves French food in the price range of less than £20. It is located in the riverside area, near Raja Indian Cuisine.</t>
-  </si>
-  <si>
-    <t>The Vaults is a family friendly restaurant in the low price range serving French food, situated near Raja Indian Cuisine</t>
-  </si>
-  <si>
-    <t>The Vaults is a pub that serves Italian food. It is located near Rainbow Vegetarian Café. It is not children friendly. The price range is more than £30. The customer rating is high.</t>
+    <t>name[The Vaults], eatType[restaurant], food[French], priceRange[less than £20], 
+area[riverside], familyFriendly[yes], near[Raja Indian Cuisine]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mill is a family-friendly restaurant that serves English food for less than £20.
+It is located in the city centre near Raja Indian Cuisine.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mill is a family-friendly restaurant which serves English food in the price range of less than £20. 
+It is located in the city centre area, near Raja Indian Cuisine.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mill is a family friendly English restaurant in the city centre near Raja Indian Cuisine. 
+It has a price range of less than £20.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly French restaurant located near Raja Indian Cuisine in the riverside area. 
+The price range is less than £20.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Vaults is a family-friendly restaurant which serves French food in the price range of less than £20. 
+It is located in the riverside area, near Raja Indian Cuisine.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">name[The Vaults], eatType[pub], food[Italian], priceRange[more than £30], customer rating[high], </t>
+      <t xml:space="preserve">name[The Vaults], eatType[pub], food[Japanese], priceRange[less than £20], 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customer rating[average]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, area[riverside], familyFriendly[yes], near[Raja Indian Cuisine]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name[The Vaults], eatType[pub], food[Italian], priceRange[more than £30], 
+customer rating[high], </t>
     </r>
     <r>
       <rPr>
@@ -1413,7 +1426,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>, familyFriendly[no], near[Rainbow Vegetarian Café]</t>
@@ -1421,29 +1435,57 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">name[The Vaults], eatType[pub], food[Japanese], priceRange[less than £20], </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>customer rating[average]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, area[riverside], familyFriendly[yes], near[Raja Indian Cuisine]</t>
-    </r>
+    <t>The Vaults is a family friendly pub that serves Japanese food for less than £20.
+It is located in the riverside area near Raja Indian Cuisine.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Vaults is a pub that serves Italian food. It is located near Rainbow Vegetarian Café.
+It is not children friendly. The price range is more than £30. The customer rating is high.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mill, Is a restaurant and is family-friendly, cheap and reasonable priced is very good for the family , 
+We provide full English food. Located near Raja Indian Cuisine In the city centre.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mill is a family-friendly english restaurant in the city centre near 
+Raja Indian Cuisine with a price range less than £20.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly French restaurant in the riverside area near Raja Indian Cuisine. 
+The price range is less than £20.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly restaurant in the low price range serving French food, 
+situated near Raja Indian Cuisine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Vaults is a family friendly french restaurant in the riverside area near Raja Indian Cuisine. 
+The price range is less than £20.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[Strada], eatType[pub], customer rating[1 out of 5], near[All Bar One]</t>
+  </si>
+  <si>
+    <t>Strada is a pub near All Bar One with a customer rating of 1 out of 5.</t>
+  </si>
+  <si>
+    <t>Strada is a pub located near All Bar One. It has a customer rating of 1 out of 5.</t>
+  </si>
+  <si>
+    <t>'our_model', 'slug', 'tgen', 'tuda', 'references'</t>
+  </si>
+  <si>
+    <t>The Strada is a pub near All Bar One that has a customer rating of 1 out of 5.</t>
+  </si>
+  <si>
+    <t>Reference sample</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,28 +1645,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1997,7 +2033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2420,6 +2456,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2483,14 +2522,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2823,14 +2865,14 @@
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
@@ -3019,14 +3061,14 @@
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
@@ -3361,14 +3403,14 @@
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="154" t="s">
+      <c r="C33" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="157"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="35">
@@ -3720,14 +3762,14 @@
     <row r="3" spans="1:11">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="166"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -3979,14 +4021,14 @@
     <row r="16" spans="1:11">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -5281,14 +5323,14 @@
     <row r="74" spans="1:11" ht="17.25" thickBot="1">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="169" t="s">
+      <c r="C74" s="170" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="170"/>
-      <c r="E74" s="170"/>
-      <c r="F74" s="170"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="171"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="171"/>
+      <c r="F74" s="171"/>
+      <c r="G74" s="171"/>
+      <c r="H74" s="172"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
@@ -6583,8 +6625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6981,14 +7023,14 @@
     <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="82"/>
       <c r="B16" s="82"/>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -8050,7 +8092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -8237,10 +8279,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="175"/>
     </row>
     <row r="4" spans="2:3" ht="20.25">
       <c r="B4" s="138" t="s">
@@ -8291,10 +8333,10 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="174"/>
+      <c r="C10" s="175"/>
     </row>
     <row r="11" spans="2:3" ht="20.25">
       <c r="B11" s="138" t="s">
@@ -8423,192 +8465,255 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:E30"/>
+  <dimension ref="B4:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="176" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5">
+    <row r="4" spans="2:7">
       <c r="D4" s="113" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E4" s="113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="175" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="D5" s="176" t="s">
+        <v>330</v>
       </c>
       <c r="E5" s="113" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="175" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>239</v>
       </c>
       <c r="E6" s="113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="175" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="113" t="s">
-        <v>328</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="2:7">
       <c r="D9" s="113" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="E9" s="113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="2:7">
       <c r="D10" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="D11" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="D12" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="D14" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="33">
+      <c r="D16" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="114" t="s">
         <v>331</v>
       </c>
-      <c r="E10" s="113" t="s">
+    </row>
+    <row r="17" spans="4:5" ht="33">
+      <c r="D17" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="114" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="175" t="s">
+    <row r="18" spans="4:5" ht="33">
+      <c r="D18" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="114" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="33">
+      <c r="D19" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="33">
+      <c r="D20" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="33">
+      <c r="D21" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="114" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="33">
+      <c r="D22" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="33">
+      <c r="D23" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="114" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" ht="33">
+      <c r="D24" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="33">
+      <c r="D25" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="114" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="33">
+      <c r="D26" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="33">
+      <c r="D27" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="114" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="33">
+      <c r="D29" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="177" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" ht="33">
+      <c r="D30" s="154" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="113" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="175" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="175" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="113" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="113" t="s">
+      <c r="E30" s="179" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" ht="33">
+      <c r="D31" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="113" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="113" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="113" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="E16" s="113" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="175" t="s">
+      <c r="E31" s="178" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="33">
+      <c r="D32" s="154" t="s">
         <v>325</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E32" s="178" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="175" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="113" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="175" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="113" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="113" t="s">
-        <v>328</v>
-      </c>
-      <c r="E20" s="113" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="113" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="113" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" s="176" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="175" t="s">
-        <v>325</v>
-      </c>
-      <c r="E28" s="177" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="E29" s="113" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="175" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" s="113" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/experiments.xlsx
+++ b/predictions/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="devset" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="1or2_MRs" sheetId="6" r:id="rId5"/>
     <sheet name="sample" sheetId="5" r:id="rId6"/>
     <sheet name="output" sheetId="7" r:id="rId7"/>
+    <sheet name="slot포함" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="364">
   <si>
     <t>모델</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1318,10 +1319,6 @@
   </si>
   <si>
     <t>There is a pub Blue Spice in the riverside area.</t>
-  </si>
-  <si>
-    <t>our_model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>references</t>
@@ -1488,12 +1485,133 @@
     <t>Reference sample</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>['our_model', 'slug', 'tgen', 'tuda', 'references']</t>
+  </si>
+  <si>
+    <t>[0.10952380952380952, 0.09682539682539683, 0.10952380952380952, 0.10476190476190476, 0.42063492063492064]</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Incomplete(%)</t>
+  </si>
+  <si>
+    <t>training dataset</t>
+  </si>
+  <si>
+    <t>test dataset</t>
+  </si>
+  <si>
+    <t>(Ours) Multi-Constraeind Transformer</t>
+  </si>
+  <si>
+    <t>slot 미포함 예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utterance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The family friendly The Rice Boat is located on the riverside,
+near the Express by Holiday Inn,
+ serving English cuisine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t>below £20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t>customer rating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name[The Rice Boat], food[English],
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t>priceRange[less than £20]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t>customer rating[low]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Var(--jp-code-font-family)"/>
+        <family val="2"/>
+      </rPr>
+      <t>,
+area[riverside], familyFriendly[yes], near[Express by Holiday Inn]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,6 +1783,25 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2033,7 +2170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,8 +2593,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2522,16 +2674,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2865,14 +3008,14 @@
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
@@ -3061,14 +3204,14 @@
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="163"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
@@ -3403,14 +3546,14 @@
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="157"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="162"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="35">
@@ -3762,14 +3905,14 @@
     <row r="3" spans="1:11">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="166"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -4021,14 +4164,14 @@
     <row r="16" spans="1:11">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="174"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -5323,14 +5466,14 @@
     <row r="74" spans="1:11" ht="17.25" thickBot="1">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="170" t="s">
+      <c r="C74" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="171"/>
-      <c r="E74" s="171"/>
-      <c r="F74" s="171"/>
-      <c r="G74" s="171"/>
-      <c r="H74" s="172"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="176"/>
+      <c r="F74" s="176"/>
+      <c r="G74" s="176"/>
+      <c r="H74" s="177"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
@@ -7023,14 +7166,14 @@
     <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="82"/>
       <c r="B16" s="82"/>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -8279,10 +8422,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="180"/>
     </row>
     <row r="4" spans="2:3" ht="20.25">
       <c r="B4" s="138" t="s">
@@ -8333,10 +8476,10 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="175"/>
+      <c r="C10" s="180"/>
     </row>
     <row r="11" spans="2:3" ht="20.25">
       <c r="B11" s="138" t="s">
@@ -8467,8 +8610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8479,18 +8622,18 @@
   <sheetData>
     <row r="4" spans="2:7">
       <c r="D4" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="113" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="D5" s="157" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="D5" s="176" t="s">
-        <v>330</v>
-      </c>
       <c r="E5" s="113" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -8528,7 +8671,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="D9" s="113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" s="113" t="s">
         <v>324</v>
@@ -8536,18 +8679,18 @@
     </row>
     <row r="10" spans="2:7">
       <c r="D10" s="113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="116" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="D11" s="157" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="116" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="D11" s="176" t="s">
-        <v>330</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -8555,7 +8698,7 @@
         <v>239</v>
       </c>
       <c r="E12" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -8563,10 +8706,10 @@
         <v>242</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8574,34 +8717,34 @@
         <v>247</v>
       </c>
       <c r="E14" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="D15" s="113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="33">
       <c r="D16" s="113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="33">
-      <c r="D17" s="176" t="s">
-        <v>330</v>
+      <c r="D17" s="157" t="s">
+        <v>329</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="33">
@@ -8609,7 +8752,7 @@
         <v>239</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="33">
@@ -8617,7 +8760,7 @@
         <v>242</v>
       </c>
       <c r="E19" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="33">
@@ -8625,31 +8768,31 @@
         <v>247</v>
       </c>
       <c r="E20" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="33">
       <c r="D21" s="113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="33">
       <c r="D22" s="113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="33">
-      <c r="D23" s="176" t="s">
-        <v>330</v>
+      <c r="D23" s="157" t="s">
+        <v>329</v>
       </c>
       <c r="E23" s="114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="33">
@@ -8657,7 +8800,7 @@
         <v>239</v>
       </c>
       <c r="E24" s="114" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="4:5" ht="33">
@@ -8665,7 +8808,7 @@
         <v>242</v>
       </c>
       <c r="E25" s="114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="33">
@@ -8673,47 +8816,128 @@
         <v>247</v>
       </c>
       <c r="E26" s="114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="33">
       <c r="D27" s="113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E27" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="4:5" ht="33">
       <c r="D29" s="113" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" s="177" t="s">
-        <v>338</v>
+        <v>327</v>
+      </c>
+      <c r="E29" s="154" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="4:5" ht="33">
-      <c r="D30" s="154" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" s="179" t="s">
-        <v>340</v>
+      <c r="D30" s="157" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="156" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="4:5" ht="33">
       <c r="D31" s="113" t="s">
-        <v>328</v>
-      </c>
-      <c r="E31" s="178" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+      <c r="E31" s="155" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="33">
-      <c r="D32" s="154" t="s">
-        <v>325</v>
-      </c>
-      <c r="E32" s="178" t="s">
-        <v>341</v>
+      <c r="D32" s="157" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" s="155" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:12">
+      <c r="L6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="D8" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="38.25">
+      <c r="D9" s="113" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="113">
+        <v>47.45</v>
+      </c>
+      <c r="K9" s="113" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="181" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="38.25">
+      <c r="D10" s="113" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="113">
+        <v>45.28</v>
+      </c>
+      <c r="K10" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" s="181" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="113">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12">
+      <c r="D16" s="158" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="159" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
